--- a/public/prueba.xlsx
+++ b/public/prueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>CONTACTO</t>
   </si>
@@ -35,19 +35,10 @@
     <t>IMAGEN DE CONTACTO</t>
   </si>
   <si>
-    <t>Olaf</t>
-  </si>
-  <si>
-    <t>ola@ola.com</t>
-  </si>
-  <si>
-    <t>OIJo</t>
-  </si>
-  <si>
-    <t>Bender</t>
-  </si>
-  <si>
-    <t>ben@der.com</t>
+    <t>Teem</t>
+  </si>
+  <si>
+    <t>te@mo.com</t>
   </si>
 </sst>
 </file>
@@ -105,7 +96,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="533400" cy="952500"/>
+    <xdr:ext cx="952500" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="test_img" descr="test_img"/>
@@ -115,36 +106,6 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="0"/>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1266825" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -451,7 +412,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>321654987</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -500,26 +461,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2"/>
       <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6" customHeight="1" ht="110">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/prueba.xlsx
+++ b/public/prueba.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>CONTACTO</t>
   </si>
@@ -35,10 +35,25 @@
     <t>IMAGEN DE CONTACTO</t>
   </si>
   <si>
-    <t>Teem</t>
-  </si>
-  <si>
-    <t>te@mo.com</t>
+    <t>Gustavo Mitre Gallardo</t>
+  </si>
+  <si>
+    <t>gustavo.mitre@mail.com</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Ricardo Romero Soto</t>
+  </si>
+  <si>
+    <t>ricardo@absci.com</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Calle lololo</t>
   </si>
 </sst>
 </file>
@@ -106,6 +121,36 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="test_img" descr="test_img"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -412,7 +457,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,16 +498,34 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>3216549870</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" customHeight="1" ht="110">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>3216549870</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
